--- a/config/testcases/Report_MC.RS01DienThe(Clone).xlsx
+++ b/config/testcases/Report_MC.RS01DienThe(Clone).xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="6NCm8cybL/+2sVsN0LEvvhHUbWRjxrsLPWTRXlUDBj8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="Co07yvixXJtLfOxTSDE2YKObHDk7UKEIK5LXGHgsYPs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="127">
   <si>
     <t>TCID</t>
   </si>
@@ -178,7 +178,7 @@
     <t>getAudiosSource</t>
   </si>
   <si>
-    <t>FxSource</t>
+    <t>Managers/SoundManager/FxSource</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="MC.RS01DienThe(Clone)")].turn[0].word[?(@.type=='question')].audio[*].file_path</t>
@@ -304,7 +304,7 @@
     <t>getAudiosSourceByLocator</t>
   </si>
   <si>
-    <t>FxSource,Mic-Working</t>
+    <t>Managers/SoundManager/FxSource,Mic-Working</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="MC.RS01DienThe(Clone)")].turn[1].word[?(@.type=='question')].audio[*].file_path</t>
@@ -2075,7 +2075,7 @@
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="53.25" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -2095,10 +2095,18 @@
       <c r="G19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="19"/>
+      <c r="H19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
@@ -2627,114 +2635,86 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>105</v>
+        <v>122</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="19"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L5 M1:N1 L7:L38">
+  <conditionalFormatting sqref="L1:L5 M1:N1 L7:L37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L5 M1:N1 L7:L38">
+  <conditionalFormatting sqref="L1:L5 M1:N1 L7:L37">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L5 M1:N1 L7:L38">
+  <conditionalFormatting sqref="L1:L5 M1:N1 L7:L37">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H20 H32 H37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H20 H32">
       <formula1>Keywords!$A$2:$A182</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H16">
       <formula1>Keywords!$A$2:$A180</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H38">
-      <formula1>Keywords!$A$2:$A187</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H27:H29">
       <formula1>Keywords!$A$2:$A195</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1 A3:A38">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1 A3:A37">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6:H9 H21:H23">
       <formula1>Keywords!$A$2:$A177</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D38">
-      <formula1>Keywords!$A$2:$A38</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D37">
+      <formula1>Keywords!$A$2:$A37</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10:H13 H24:H26">
       <formula1>Keywords!$A$2:$A180</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H5 H19">
       <formula1>Keywords!$A$2:$A176</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17:H18 H33:H34">
       <formula1>Keywords!$A$2:$A181</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G38">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G37">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H30:H31">
       <formula1>Keywords!$A$2:$A196</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 H14 H19 H35:H36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H37">
+      <formula1>Keywords!$A$2:$A187</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 H14 H35:H36">
       <formula1>Keywords!$A$2:$A165</formula1>
     </dataValidation>
   </dataValidations>
@@ -4137,24 +4117,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B36" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C36" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="52"/>
-      <c r="F36" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F36" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
       </c>
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
@@ -4179,20 +4157,25 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B37" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C37" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
+      <c r="F37" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
@@ -4216,12 +4199,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B38" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C38" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4253,16 +4236,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B39" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C39" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
@@ -4290,16 +4273,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B40" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C40" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
@@ -4327,16 +4310,16 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B41" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C41" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="52"/>
@@ -4364,22 +4347,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B42" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C42" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D42" s="52"/>
-      <c r="E42" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E42" s="52"/>
       <c r="F42" s="52"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
@@ -4404,23 +4384,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B43" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C43" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="E43" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F43" s="52"/>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
@@ -4444,12 +4424,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B44" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C44" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4458,8 +4438,8 @@
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
       <c r="F44" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
@@ -4484,12 +4464,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B45" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C45" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4498,8 +4478,8 @@
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
       <c r="F45" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
       </c>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
@@ -4524,12 +4504,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B46" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C46" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4538,8 +4518,8 @@
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
       <c r="F46" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
       </c>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
@@ -4564,12 +4544,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B47" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C47" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4577,7 +4557,10 @@
       </c>
       <c r="D47" s="52"/>
       <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
+      <c r="F47" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
@@ -4601,12 +4584,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B48" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C48" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4638,12 +4621,12 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B49" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C49" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4675,12 +4658,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B50" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C50" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4688,10 +4671,7 @@
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="52"/>
-      <c r="F50" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F50" s="52"/>
       <c r="G50" s="52"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
@@ -4715,20 +4695,23 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B51" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C51" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D51" s="52"/>
       <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
+      <c r="F51" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
@@ -4752,16 +4735,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B52" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C52" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D52" s="52"/>
       <c r="E52" s="52"/>
@@ -4789,8 +4772,8 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B53" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -4830,8 +4813,8 @@
         <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C54" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4863,23 +4846,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B55" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C55" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="52"/>
-      <c r="F55" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
@@ -4903,25 +4883,23 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B56" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C56" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D56" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+      <c r="D56" s="52"/>
       <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
+      <c r="F56" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G56" s="52"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
@@ -4945,18 +4923,23 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B57" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C57" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D57" s="52"/>
+      <c r="D57" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
+      </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
@@ -4982,21 +4965,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B58" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C58" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D58" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D58" s="52"/>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
@@ -5022,23 +5002,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B59" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C59" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="52"/>
+      <c r="D59" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
       <c r="E59" s="52"/>
-      <c r="F59" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F59" s="52"/>
       <c r="G59" s="52"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
@@ -5066,19 +5046,19 @@
         <v>getListAudioSource</v>
       </c>
       <c r="B60" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C60" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D60" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
-      </c>
+      <c r="D60" s="52"/>
       <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
+      <c r="F60" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
@@ -5102,22 +5082,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B61" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C61" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="D61" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
+      <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="52"/>
       <c r="H61" s="52"/>
@@ -5142,19 +5122,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B62" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C62" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
+      <c r="E62" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F62" s="52"/>
       <c r="G62" s="52"/>
       <c r="H62" s="52"/>
@@ -5179,12 +5162,12 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B63" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C63" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5220,8 +5203,8 @@
         <v>isScale</v>
       </c>
       <c r="B64" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C64" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5253,21 +5236,18 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B65" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C65" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D65" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D65" s="52"/>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
@@ -5293,27 +5273,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B66" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C66" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D66" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E66" s="52"/>
-      <c r="F66" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F66" s="52"/>
       <c r="G66" s="52"/>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
@@ -5337,8 +5313,8 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B67" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
@@ -5353,12 +5329,10 @@
       <c r="F67" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
+3. indexSplit:1")</f>
         <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
+3. indexSplit:1</v>
       </c>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
@@ -5387,13 +5361,25 @@
         <v>getVideoUrl</v>
       </c>
       <c r="B68" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C68" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C68" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D68" s="52"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
+      <c r="F68" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
@@ -5417,17 +5403,14 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B69" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C69" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C69" s="52"/>
       <c r="D69" s="52"/>
       <c r="E69" s="52"/>
       <c r="F69" s="52"/>
@@ -5454,26 +5437,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D70" s="52"/>
       <c r="E70" s="52"/>
-      <c r="F70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F70" s="52"/>
       <c r="G70" s="52"/>
       <c r="H70" s="52"/>
       <c r="I70" s="52"/>
@@ -5497,22 +5474,25 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B71" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C71" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D71" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D71" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E71" s="52"/>
       <c r="F71" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G71" s="52"/>
       <c r="H71" s="52"/>
@@ -5537,12 +5517,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B72" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C72" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5550,7 +5530,10 @@
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
+      <c r="F72" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G72" s="52"/>
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
@@ -5574,12 +5557,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C73" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5587,10 +5570,7 @@
       </c>
       <c r="D73" s="52"/>
       <c r="E73" s="52"/>
-      <c r="F73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F73" s="52"/>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
@@ -5614,12 +5594,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B74" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C74" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5627,10 +5607,7 @@
       </c>
       <c r="D74" s="52"/>
       <c r="E74" s="52"/>
-      <c r="F74" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
-      </c>
+      <c r="F74" s="52"/>
       <c r="G74" s="52"/>
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
@@ -5654,16 +5631,16 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B75" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C75" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D75" s="52"/>
       <c r="E75" s="52"/>
@@ -5691,12 +5668,12 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B76" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C76" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5704,7 +5681,10 @@
       </c>
       <c r="D76" s="52"/>
       <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
+      <c r="F76" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G76" s="52"/>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
@@ -5728,12 +5708,12 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B77" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C77" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5741,7 +5721,10 @@
       </c>
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
+      <c r="F77" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G77" s="52"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
@@ -5765,16 +5748,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B78" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C78" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D78" s="52"/>
       <c r="E78" s="52"/>
@@ -5802,12 +5785,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B79" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C79" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5839,12 +5822,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B80" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C80" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5876,12 +5859,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C81" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5913,12 +5896,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B82" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C82" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5950,12 +5933,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B83" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C83" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5987,12 +5970,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B84" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C84" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6000,10 +5983,7 @@
       </c>
       <c r="D84" s="52"/>
       <c r="E84" s="52"/>
-      <c r="F84" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F84" s="52"/>
       <c r="G84" s="52"/>
       <c r="H84" s="52"/>
       <c r="I84" s="52"/>
@@ -6027,12 +6007,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B85" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C85" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6064,12 +6044,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B86" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C86" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6101,12 +6081,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B87" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C87" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6115,8 +6095,8 @@
       <c r="D87" s="52"/>
       <c r="E87" s="52"/>
       <c r="F87" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
       </c>
       <c r="G87" s="52"/>
       <c r="H87" s="52"/>
@@ -6141,12 +6121,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B88" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C88" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6154,10 +6134,7 @@
       </c>
       <c r="D88" s="52"/>
       <c r="E88" s="52"/>
-      <c r="F88" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F88" s="52"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
@@ -6181,12 +6158,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B89" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C89" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6194,10 +6171,7 @@
       </c>
       <c r="D89" s="52"/>
       <c r="E89" s="52"/>
-      <c r="F89" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
-      </c>
+      <c r="F89" s="52"/>
       <c r="G89" s="52"/>
       <c r="H89" s="52"/>
       <c r="I89" s="52"/>
@@ -6221,12 +6195,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B90" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C90" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6258,12 +6232,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B91" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C91" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6271,7 +6245,10 @@
       </c>
       <c r="D91" s="52"/>
       <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
+      <c r="F91" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
+      </c>
       <c r="G91" s="52"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
@@ -6295,10 +6272,13 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B92" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
+      </c>
+      <c r="B92" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
+      </c>
       <c r="C92" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
@@ -6306,8 +6286,8 @@
       <c r="D92" s="52"/>
       <c r="E92" s="52"/>
       <c r="F92" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G92" s="52"/>
       <c r="H92" s="52"/>
@@ -6332,10 +6312,13 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B93" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
+      </c>
+      <c r="B93" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
+      </c>
       <c r="C93" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
@@ -6343,8 +6326,8 @@
       <c r="D93" s="52"/>
       <c r="E93" s="52"/>
       <c r="F93" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
       </c>
       <c r="G93" s="52"/>
       <c r="H93" s="52"/>
@@ -6369,16 +6352,16 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B94" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C94" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D94" s="52"/>
       <c r="E94" s="52"/>
@@ -6406,16 +6389,16 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
       </c>
       <c r="B95" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
       </c>
       <c r="C95" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
@@ -6443,20 +6426,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
-      </c>
-      <c r="B96" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
+      <c r="B96" s="52"/>
       <c r="C96" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D96" s="52"/>
       <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
+      <c r="F96" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G96" s="52"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
@@ -6480,13 +6463,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
-      </c>
-      <c r="B97" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B97" s="52"/>
       <c r="C97" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
@@ -6494,8 +6474,8 @@
       <c r="D97" s="52"/>
       <c r="E97" s="52"/>
       <c r="F97" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
       </c>
       <c r="G97" s="52"/>
       <c r="H97" s="52"/>
@@ -6520,16 +6500,16 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B98" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C98" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D98" s="52"/>
       <c r="E98" s="52"/>
@@ -6557,12 +6537,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B99" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C99" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6593,9 +6573,18 @@
       <c r="Z99" s="52"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="52"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
+      <c r="A100" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
+      </c>
+      <c r="B100" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
+      </c>
+      <c r="C100" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D100" s="52"/>
       <c r="E100" s="52"/>
       <c r="F100" s="52"/>
@@ -6621,12 +6610,24 @@
       <c r="Z100" s="52"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="52"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
+      <c r="A101" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
+      </c>
+      <c r="B101" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+      </c>
+      <c r="C101" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D101" s="52"/>
       <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
+      <c r="F101" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G101" s="52"/>
       <c r="H101" s="52"/>
       <c r="I101" s="52"/>
@@ -6649,9 +6650,18 @@
       <c r="Z101" s="52"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="52"/>
+      <c r="A102" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
+      </c>
+      <c r="B102" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
+      </c>
+      <c r="C102" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D102" s="52"/>
       <c r="E102" s="52"/>
       <c r="F102" s="52"/>
@@ -6677,9 +6687,18 @@
       <c r="Z102" s="52"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
+      <c r="A103" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B103" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C103" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D103" s="52"/>
       <c r="E103" s="52"/>
       <c r="F103" s="52"/>
@@ -6705,12 +6724,24 @@
       <c r="Z103" s="52"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
+      <c r="A104" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B104" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C104" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D104" s="52"/>
       <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
+      <c r="F104" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G104" s="52"/>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>

--- a/config/testcases/Report_MC.RS01DienThe(Clone).xlsx
+++ b/config/testcases/Report_MC.RS01DienThe(Clone).xlsx
@@ -283,18 +283,6 @@
     <t>ItemsDrag/$.path,SyncItem_Image(Clone)</t>
   </si>
   <si>
-    <t>Kiểm tra text hoàn chỉnh</t>
-  </si>
-  <si>
-    <t>Mic-Normal</t>
-  </si>
-  <si>
-    <t>GamePlaySpeak//Text</t>
-  </si>
-  <si>
-    <t>$.act[?(@.game_name=="MC.RS01DienThe(Clone)")].turn[0].word[?(@.type=='question')].text</t>
-  </si>
-  <si>
     <t>TS5</t>
   </si>
   <si>
@@ -308,6 +296,18 @@
   </si>
   <si>
     <t>$.act[?(@.game_name=="MC.RS01DienThe(Clone)")].turn[1].word[?(@.type=='question')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>Kiểm tra text hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>Mic-Normal</t>
+  </si>
+  <si>
+    <t>GamePlaySpeak//Text</t>
+  </si>
+  <si>
+    <t>$.act[?(@.game_name=="MC.RS01DienThe(Clone)")].turn[0].word[?(@.type=='question')].text</t>
   </si>
   <si>
     <t>TS6</t>
@@ -1958,30 +1958,28 @@
         <v>23</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="28" t="s">
         <v>88</v>
       </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="16"/>
       <c r="G15" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="K15" s="26" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -1992,28 +1990,30 @@
         <v>23</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -2102,10 +2102,10 @@
         <v>52</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -2511,67 +2511,67 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" ht="36.75" customHeight="1">
+    <row r="33" ht="48.0" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="28" t="s">
         <v>88</v>
       </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="16"/>
       <c r="G33" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="K33" s="26" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" ht="48.0" customHeight="1">
+    <row r="34" ht="36.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
+      <c r="D34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="J34" s="26"/>
       <c r="K34" s="26" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -2582,7 +2582,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C35" s="43" t="s">
         <v>97</v>
@@ -2681,8 +2681,8 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H20 H32">
       <formula1>Keywords!$A$2:$A182</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15:H16">
-      <formula1>Keywords!$A$2:$A180</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H33">
+      <formula1>Keywords!$A$2:$A198</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H27:H29">
       <formula1>Keywords!$A$2:$A195</formula1>
@@ -2702,19 +2702,19 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H5 H19">
       <formula1>Keywords!$A$2:$A176</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17:H18 H33:H34">
-      <formula1>Keywords!$A$2:$A181</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H16:H18">
+      <formula1>Keywords!$A$2:$A180</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G37">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H30:H31">
-      <formula1>Keywords!$A$2:$A196</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15 H30:H31">
+      <formula1>Keywords!$A$2:$A181</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H37">
       <formula1>Keywords!$A$2:$A187</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 H14 H35:H36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 H14 H34:H36">
       <formula1>Keywords!$A$2:$A165</formula1>
     </dataValidation>
   </dataValidations>
@@ -6615,8 +6615,8 @@
         <v>deFindAnswerDienThe</v>
       </c>
       <c r="B101" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C101" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6729,8 +6729,8 @@
         <v>swipeMap</v>
       </c>
       <c r="B104" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
-        <v>locator,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
       </c>
       <c r="C104" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6764,12 +6764,24 @@
       <c r="Z104" s="52"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
+      <c r="A105" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
+      </c>
+      <c r="B105" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C105" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D105" s="52"/>
       <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
+      <c r="F105" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G105" s="52"/>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
@@ -6792,12 +6804,24 @@
       <c r="Z105" s="52"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
+      <c r="A106" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
+        <v>skipLesson</v>
+      </c>
+      <c r="B106" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
+      <c r="C106" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D106" s="52"/>
       <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
+      <c r="F106" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
+        <v>sử dụng với những nút có thể onclick()</v>
+      </c>
       <c r="G106" s="52"/>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
